--- a/biology/Zoologie/Hexapathes/Hexapathes.xlsx
+++ b/biology/Zoologie/Hexapathes/Hexapathes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexapathes est un genre de coraux noirs de la famille des Cladopathidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hexapathes a été créé en 1910 par le biologiste japonais Kumao Kinoshita (d) (1881-1947) avec comme espèce type Hexapathes heterosticha[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hexapathes a été créé en 1910 par le biologiste japonais Kumao Kinoshita (d) (1881-1947) avec comme espèce type Hexapathes heterosticha,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 décembre 2022) :
 Hexapathes alis Molodtsova, 2006
 Hexapathes australiensis Opresko, 2003
 Hexapathes bikofskii Horowitz, 2022
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Kumao Kinoshita, « On a New Antipatharian Hexapathes heterosticha n. gen. and n. sp. », Annotationes zoologicae Japonenses, Tokyo (d), Inconnu, vol. 7, no 4,‎ 21 octobre 1910, p. 231-234 (ISSN 0003-5092, OCLC 1481445, lire en ligne)</t>
         </is>
